--- a/inst/grading_rulesets.xlsx
+++ b/inst/grading_rulesets.xlsx
@@ -15,7 +15,7 @@
     <sheet name="dqindicators" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqindicators!$A$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqindicators!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>GRADING_RULESET</t>
   </si>
@@ -170,21 +170,6 @@
     <t>[0.1; Inf)</t>
   </si>
   <si>
-    <t>(-Inf; 0.1)</t>
-  </si>
-  <si>
-    <t>[0.1; 0.2)</t>
-  </si>
-  <si>
-    <t>[0.2; 0.3)</t>
-  </si>
-  <si>
-    <t>[0.3; 0.4)</t>
-  </si>
-  <si>
-    <t>[0.4; Inf)</t>
-  </si>
-  <si>
     <t>CAT_applicability</t>
   </si>
   <si>
@@ -219,6 +204,9 @@
   </si>
   <si>
     <t>(10;Inf)</t>
+  </si>
+  <si>
+    <t>PCT_int_uenc</t>
   </si>
 </sst>
 </file>
@@ -460,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,20 +505,14 @@
       <c r="A3">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -769,230 +751,130 @@
       <c r="A18">
         <v>0</v>
       </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G22"/>
+  <autoFilter ref="A1:G17"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
